--- a/Employee_Pivot_Dashboard_Practice.xlsx
+++ b/Employee_Pivot_Dashboard_Practice.xlsx
@@ -8,25 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\notes\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC38C1B-9D8B-4694-A3D3-BE6A0A8DF95C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2DA633-8F6C-4DB8-AF87-3BE5EEF5131E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
     <sheet name="Employee_Data" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId4"/>
-    <pivotCache cacheId="21" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="52">
   <si>
     <t>EmployeeID</t>
   </si>
@@ -176,6 +176,12 @@
   </si>
   <si>
     <t>Total Salary</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>NAME</t>
   </si>
 </sst>
 </file>
@@ -211,13 +217,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -343,6 +348,48 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -376,6 +423,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-1D9C-4748-93D5-75B94ED31C53}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -391,6 +443,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-1D9C-4748-93D5-75B94ED31C53}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -406,6 +463,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-1D9C-4748-93D5-75B94ED31C53}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -3447,7 +3509,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D51BCE91-38E1-4910-95A3-B1E4179BA045}" name="PivotTable5" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5" rowHeaderCaption="Department">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D51BCE91-38E1-4910-95A3-B1E4179BA045}" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5" rowHeaderCaption="Department">
   <location ref="E12:G17" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField dataField="1" showAll="0"/>
@@ -3551,7 +3613,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2C8B2FFC-ADCA-4746-983E-4E0A8973CDF9}" name="PivotTable2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" rowHeaderCaption="City">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2C8B2FFC-ADCA-4746-983E-4E0A8973CDF9}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" rowHeaderCaption="City">
   <location ref="B11:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" showAll="0">
@@ -3610,12 +3672,48 @@
   <dataFields count="1">
     <dataField name="no of employees" fld="0" subtotal="count" baseField="2" baseItem="0"/>
   </dataFields>
-  <chartFormats count="1">
+  <chartFormats count="4">
     <chartFormat chart="1" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
           </reference>
         </references>
       </pivotArea>
@@ -3634,7 +3732,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C6BDC33C-24D5-4D12-8C49-EC6372FDE73B}" name="PivotTable6" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C6BDC33C-24D5-4D12-8C49-EC6372FDE73B}" name="PivotTable6" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -4015,7 +4113,7 @@
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12">
         <v>4</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -4032,16 +4130,16 @@
       <c r="B13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13">
         <v>3</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13">
         <v>142000</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13">
         <v>2</v>
       </c>
     </row>
@@ -4049,16 +4147,16 @@
       <c r="B14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14">
         <v>3</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14">
         <v>140000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14">
         <v>3</v>
       </c>
     </row>
@@ -4066,16 +4164,16 @@
       <c r="B15" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15">
         <v>10</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15">
         <v>193000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15">
         <v>3</v>
       </c>
     </row>
@@ -4083,10 +4181,10 @@
       <c r="E16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16">
         <v>102000</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16">
         <v>2</v>
       </c>
     </row>
@@ -4094,10 +4192,10 @@
       <c r="E17" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17">
         <v>577000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17">
         <v>10</v>
       </c>
     </row>
@@ -4111,7 +4209,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{252EA55F-3B68-4065-9C6E-9612E9C1AFDD}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
@@ -4133,7 +4231,7 @@
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2">
         <v>142000</v>
       </c>
     </row>
@@ -4141,7 +4239,7 @@
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3">
         <v>140000</v>
       </c>
     </row>
@@ -4149,7 +4247,7 @@
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4">
         <v>193000</v>
       </c>
     </row>
@@ -4157,7 +4255,7 @@
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
         <v>102000</v>
       </c>
     </row>
@@ -4165,7 +4263,7 @@
       <c r="A6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6">
         <v>577000</v>
       </c>
     </row>
@@ -4177,15 +4275,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="13.42578125" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4216,8 +4318,14 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="L1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>101</v>
       </c>
@@ -4248,8 +4356,23 @@
       <c r="J2" t="s">
         <v>16</v>
       </c>
+      <c r="L2">
+        <v>103</v>
+      </c>
+      <c r="M2" t="str">
+        <f>LOOKUP(L2,A1:J11,B1:B11)</f>
+        <v>Ravi</v>
+      </c>
+      <c r="N2" t="str">
+        <f>VLOOKUP(L2,A2:J11,2,FALSE)</f>
+        <v>Ravi</v>
+      </c>
+      <c r="O2">
+        <f>VLOOKUP(L2,A2:J11,6,FALSE)</f>
+        <v>70000</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>102</v>
       </c>
@@ -4281,7 +4404,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>103</v>
       </c>
@@ -4313,7 +4436,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>104</v>
       </c>
@@ -4345,9 +4468,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
@@ -4377,9 +4500,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s">
         <v>35</v>
@@ -4409,7 +4532,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>107</v>
       </c>
@@ -4441,7 +4564,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>108</v>
       </c>
@@ -4473,9 +4596,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s">
         <v>41</v>
@@ -4505,9 +4628,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B11" t="s">
         <v>43</v>
@@ -4538,6 +4661,11 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L11" xr:uid="{571F9478-6FE8-4889-9115-19DECBC02A05}">
+      <formula1>$A$2:$A$11</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>